--- a/DWAnalysis/PropertyTurnover.xlsx
+++ b/DWAnalysis/PropertyTurnover.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5892"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp5ED2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="91" r:id="rId2"/>
+    <pivotCache cacheId="2" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Colin\AppData\Local\Temp\tmp5ED2.odc" keepAlive="1" name="localhost SSAS_RedwoodDW" type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Colin\AppData\Local\Temp\tmp5ED2.odc" keepAlive="1" name="localhost SSAS_RedwoodDW" type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=SSAS_RedwoodDW;Data Source=localhost;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Redwood DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,8 +738,97 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49734E09-EE46-4355-BED5-D21A1EE75349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="449580"/>
+          <a:ext cx="4389120" cy="2697480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Question: Over the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> course of different period of time how many listings were turned over. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>When looking at data for Redwood for 2016, and more specifically for Q2, Q3, and Q4, we can see that Q3 has a much higher total days on market than any other quarter for the year. What we can learn from this is it might be possible that July through September are not the best time to be trying to list and sell houses. We have very limited data for Q2 and no data for Q1 for 2016. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Windows User" refreshedDate="43045.801099999997" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Windows User" refreshedDate="43045.801099999997" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF5B000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="8">
     <cacheField name="[Measures].[Time On Market]" caption="Time On Market" numFmtId="0" hierarchy="15" level="32767"/>
@@ -980,7 +1069,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -1550,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1955,5 +2044,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>